--- a/docs/autoEval/P_WEB-autoEval.xlsx
+++ b/docs/autoEval/P_WEB-autoEval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po01imj\Documents\GitHub\P_Web_295\docs\autoEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51772C3F-E73C-4CE0-AEFB-532F7B7CF530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5BB9A6-8EA7-4B4D-89F3-803E2713337A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
   <si>
     <t>ETML</t>
   </si>
@@ -264,11 +264,6 @@
   </si>
   <si>
     <t>x
-o
-o</t>
-  </si>
-  <si>
-    <t>y
 o
 o</t>
   </si>
@@ -1335,140 +1330,32 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -1504,6 +1391,12 @@
     <xf numFmtId="164" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1515,6 +1408,108 @@
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1826,8 +1821,8 @@
   </sheetPr>
   <dimension ref="B1:X85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" zeroHeight="1"/>
@@ -1871,11 +1866,11 @@
       <c r="N2" s="6"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="112" t="s">
+      <c r="Q2" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="147"/>
       <c r="T2" s="7"/>
     </row>
     <row r="3" spans="2:24" ht="37.5" customHeight="1">
@@ -1891,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J3" s="76"/>
       <c r="K3" s="76"/>
@@ -1959,7 +1954,7 @@
         <v>7</v>
       </c>
       <c r="O5" s="98" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P5" s="76"/>
       <c r="Q5" s="76"/>
@@ -2014,39 +2009,39 @@
       <c r="C8" s="49"/>
       <c r="D8" s="49"/>
       <c r="E8" s="50"/>
-      <c r="F8" s="113" t="s">
+      <c r="F8" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="113" t="s">
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="113" t="s">
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="113" t="s">
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="113" t="s">
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="114"/>
+      <c r="S8" s="107"/>
       <c r="T8" s="51"/>
       <c r="X8" s="82"/>
     </row>
     <row r="9" spans="2:24" ht="100.15" customHeight="1" thickTop="1">
       <c r="B9" s="9"/>
-      <c r="C9" s="128" t="s">
+      <c r="C9" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="131" t="s">
+      <c r="D9" s="138" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="91" t="s">
@@ -2055,274 +2050,274 @@
       <c r="F9" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="103" t="s">
+      <c r="G9" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="104"/>
+      <c r="H9" s="131"/>
       <c r="I9" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="135" t="s">
+      <c r="J9" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="136"/>
+      <c r="K9" s="145"/>
       <c r="L9" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="158" t="s">
+      <c r="M9" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="159"/>
+      <c r="N9" s="125"/>
       <c r="O9" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="103" t="s">
+      <c r="P9" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="115"/>
-      <c r="S9" s="116"/>
+      <c r="Q9" s="131"/>
+      <c r="R9" s="148"/>
+      <c r="S9" s="149"/>
       <c r="T9" s="14"/>
     </row>
     <row r="10" spans="2:24" ht="100.15" customHeight="1">
       <c r="B10" s="9"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="132"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="139"/>
       <c r="E10" s="92" t="s">
         <v>53</v>
       </c>
       <c r="F10" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="123" t="s">
+      <c r="G10" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="124"/>
+      <c r="H10" s="141"/>
       <c r="I10" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="J10" s="101" t="s">
+      <c r="J10" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="102"/>
+      <c r="K10" s="129"/>
       <c r="L10" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="156" t="s">
+      <c r="M10" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="157"/>
+      <c r="N10" s="123"/>
       <c r="O10" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="101" t="s">
+      <c r="P10" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="118"/>
+      <c r="Q10" s="129"/>
+      <c r="R10" s="150"/>
+      <c r="S10" s="151"/>
       <c r="T10" s="14"/>
     </row>
     <row r="11" spans="2:24" ht="100.15" customHeight="1">
       <c r="B11" s="9"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="132"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="139"/>
       <c r="E11" s="94" t="s">
         <v>59</v>
       </c>
       <c r="F11" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="142" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="143"/>
+      <c r="I11" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="133" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="134"/>
-      <c r="I11" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" s="133" t="s">
+      <c r="J11" s="142" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="134"/>
+      <c r="K11" s="143"/>
       <c r="L11" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="137" t="s">
+      <c r="M11" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="N11" s="138"/>
+      <c r="N11" s="100"/>
       <c r="O11" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="P11" s="139" t="s">
+      <c r="P11" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" s="140"/>
-      <c r="R11" s="141"/>
-      <c r="S11" s="142"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="103"/>
+      <c r="S11" s="104"/>
       <c r="T11" s="14"/>
     </row>
     <row r="12" spans="2:24" ht="100.15" customHeight="1" thickBot="1">
       <c r="B12" s="9"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="132"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="139"/>
       <c r="E12" s="53" t="s">
         <v>54</v>
       </c>
       <c r="F12" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="105" t="s">
+      <c r="G12" s="156" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="106"/>
+      <c r="H12" s="157"/>
       <c r="I12" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="99" t="s">
+      <c r="J12" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="100"/>
+      <c r="K12" s="121"/>
       <c r="L12" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="99" t="s">
+      <c r="M12" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="N12" s="100"/>
+      <c r="N12" s="121"/>
       <c r="O12" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="P12" s="99" t="s">
+      <c r="P12" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="119"/>
-      <c r="S12" s="120"/>
+      <c r="Q12" s="121"/>
+      <c r="R12" s="152"/>
+      <c r="S12" s="153"/>
       <c r="T12" s="14"/>
     </row>
     <row r="13" spans="2:24" ht="100.15" customHeight="1" thickTop="1">
       <c r="B13" s="9"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="125" t="s">
+      <c r="C13" s="136"/>
+      <c r="D13" s="132" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="96" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="130" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="131"/>
+      <c r="I13" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="103" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="104"/>
-      <c r="I13" s="78" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="103" t="s">
+      <c r="J13" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="104"/>
+      <c r="K13" s="131"/>
       <c r="L13" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="M13" s="103" t="s">
+      <c r="M13" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="104"/>
+      <c r="N13" s="131"/>
       <c r="O13" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="P13" s="103" t="s">
+      <c r="P13" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="115"/>
-      <c r="S13" s="116"/>
+      <c r="Q13" s="131"/>
+      <c r="R13" s="148"/>
+      <c r="S13" s="149"/>
       <c r="T13" s="14"/>
     </row>
     <row r="14" spans="2:24" ht="100.15" customHeight="1">
       <c r="B14" s="9"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="126"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="133"/>
       <c r="E14" s="97" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="123" t="s">
+      <c r="G14" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="124"/>
+      <c r="H14" s="141"/>
       <c r="I14" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="123" t="s">
+      <c r="J14" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="124"/>
+      <c r="K14" s="141"/>
       <c r="L14" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="101" t="s">
+      <c r="M14" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="102"/>
+      <c r="N14" s="129"/>
       <c r="O14" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="P14" s="101" t="s">
+      <c r="P14" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="Q14" s="102"/>
-      <c r="R14" s="117"/>
-      <c r="S14" s="118"/>
+      <c r="Q14" s="129"/>
+      <c r="R14" s="150"/>
+      <c r="S14" s="151"/>
       <c r="T14" s="14"/>
     </row>
     <row r="15" spans="2:24" ht="100.15" customHeight="1" thickBot="1">
       <c r="B15" s="9"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="127"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="134"/>
       <c r="E15" s="53" t="s">
         <v>37</v>
       </c>
       <c r="F15" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="106"/>
+      <c r="H15" s="157"/>
       <c r="I15" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="105" t="s">
+      <c r="J15" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="106"/>
+      <c r="K15" s="157"/>
       <c r="L15" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="99" t="s">
+      <c r="M15" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="N15" s="100"/>
+      <c r="N15" s="121"/>
       <c r="O15" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="P15" s="99" t="s">
+      <c r="P15" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="120"/>
+      <c r="Q15" s="121"/>
+      <c r="R15" s="152"/>
+      <c r="S15" s="153"/>
       <c r="T15" s="14"/>
     </row>
     <row r="16" spans="2:24" ht="100.15" customHeight="1" thickTop="1" thickBot="1">
       <c r="B16" s="9"/>
-      <c r="C16" s="130"/>
+      <c r="C16" s="137"/>
       <c r="D16" s="87" t="s">
         <v>40</v>
       </c>
@@ -2332,33 +2327,33 @@
       <c r="F16" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="107" t="s">
+      <c r="G16" s="158" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="108"/>
+      <c r="H16" s="159"/>
       <c r="I16" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="109" t="s">
+      <c r="J16" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="K16" s="110"/>
+      <c r="K16" s="127"/>
       <c r="L16" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="M16" s="109" t="s">
+      <c r="M16" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="N16" s="110"/>
+      <c r="N16" s="127"/>
       <c r="O16" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="P16" s="109" t="s">
+      <c r="P16" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="Q16" s="110"/>
-      <c r="R16" s="121"/>
-      <c r="S16" s="122"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="154"/>
+      <c r="S16" s="155"/>
       <c r="T16" s="14"/>
     </row>
     <row r="17" spans="2:20" ht="4.9000000000000004" customHeight="1">
@@ -2404,7 +2399,7 @@
       <c r="P18" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="Q18" s="111" t="s">
+      <c r="Q18" s="146" t="s">
         <v>49</v>
       </c>
       <c r="R18" s="60"/>
@@ -2427,7 +2422,7 @@
       <c r="N19" s="57"/>
       <c r="O19" s="57"/>
       <c r="P19" s="57"/>
-      <c r="Q19" s="111"/>
+      <c r="Q19" s="146"/>
       <c r="R19" s="60"/>
       <c r="S19" s="60"/>
       <c r="T19" s="14"/>
@@ -2443,14 +2438,14 @@
       <c r="I20" s="84"/>
       <c r="J20" s="84"/>
       <c r="K20" s="45"/>
-      <c r="L20" s="145" t="s">
+      <c r="L20" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="145"/>
+      <c r="M20" s="109"/>
       <c r="N20" s="74"/>
       <c r="O20" s="75"/>
       <c r="P20" s="75"/>
-      <c r="Q20" s="111"/>
+      <c r="Q20" s="146"/>
       <c r="R20" s="60"/>
       <c r="S20" s="60"/>
       <c r="T20" s="14"/>
@@ -2487,10 +2482,10 @@
       <c r="I22" s="84"/>
       <c r="J22" s="84"/>
       <c r="K22" s="45"/>
-      <c r="L22" s="144" t="s">
+      <c r="L22" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="M22" s="144"/>
+      <c r="M22" s="108"/>
       <c r="N22" s="75"/>
       <c r="O22" s="75"/>
       <c r="P22" s="75"/>
@@ -2535,15 +2530,15 @@
       <c r="M24" s="68"/>
       <c r="N24" s="57"/>
       <c r="O24" s="57"/>
-      <c r="P24" s="146" t="s">
+      <c r="P24" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="Q24" s="147" t="str">
+      <c r="Q24" s="111" t="str">
         <f>IF(COUNT(S9:S16)=8,MROUND(SUM(S9:S16)/SUM(R9:R16),0.5),"")</f>
         <v/>
       </c>
-      <c r="R24" s="148"/>
-      <c r="S24" s="149"/>
+      <c r="R24" s="112"/>
+      <c r="S24" s="113"/>
       <c r="T24" s="14"/>
     </row>
     <row r="25" spans="2:20" ht="30" customHeight="1">
@@ -2561,10 +2556,10 @@
       <c r="M25" s="56"/>
       <c r="N25" s="56"/>
       <c r="O25" s="56"/>
-      <c r="P25" s="146"/>
-      <c r="Q25" s="150"/>
-      <c r="R25" s="151"/>
-      <c r="S25" s="152"/>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="114"/>
+      <c r="R25" s="115"/>
+      <c r="S25" s="116"/>
       <c r="T25" s="14"/>
     </row>
     <row r="26" spans="2:20" ht="28.5" customHeight="1">
@@ -2582,10 +2577,10 @@
       <c r="M26" s="68"/>
       <c r="N26" s="57"/>
       <c r="O26" s="67"/>
-      <c r="P26" s="146"/>
-      <c r="Q26" s="150"/>
-      <c r="R26" s="151"/>
-      <c r="S26" s="152"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="114"/>
+      <c r="R26" s="115"/>
+      <c r="S26" s="116"/>
       <c r="T26" s="14"/>
     </row>
     <row r="27" spans="2:20" ht="30" customHeight="1">
@@ -2603,10 +2598,10 @@
       <c r="M27" s="57"/>
       <c r="N27" s="57"/>
       <c r="O27" s="67"/>
-      <c r="P27" s="146"/>
-      <c r="Q27" s="150"/>
-      <c r="R27" s="151"/>
-      <c r="S27" s="152"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="114"/>
+      <c r="R27" s="115"/>
+      <c r="S27" s="116"/>
       <c r="T27" s="14"/>
     </row>
     <row r="28" spans="2:20" ht="30" customHeight="1">
@@ -2624,10 +2619,10 @@
       <c r="M28" s="57"/>
       <c r="N28" s="57"/>
       <c r="O28" s="67"/>
-      <c r="P28" s="146"/>
-      <c r="Q28" s="153"/>
-      <c r="R28" s="154"/>
-      <c r="S28" s="155"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="117"/>
+      <c r="R28" s="118"/>
+      <c r="S28" s="119"/>
       <c r="T28" s="14"/>
     </row>
     <row r="29" spans="2:20" ht="9.75" hidden="1" customHeight="1" thickBot="1">
@@ -2887,14 +2882,14 @@
     <row r="43" spans="2:20"/>
     <row r="44" spans="2:20"/>
     <row r="45" spans="2:20">
-      <c r="M45" s="143"/>
-      <c r="N45" s="143"/>
-      <c r="O45" s="143"/>
+      <c r="M45" s="105"/>
+      <c r="N45" s="105"/>
+      <c r="O45" s="105"/>
     </row>
     <row r="46" spans="2:20">
-      <c r="M46" s="143"/>
-      <c r="N46" s="143"/>
-      <c r="O46" s="143"/>
+      <c r="M46" s="105"/>
+      <c r="N46" s="105"/>
+      <c r="O46" s="105"/>
     </row>
     <row r="47" spans="2:20"/>
     <row r="48" spans="2:20"/>
@@ -2937,6 +2932,45 @@
     <row r="85"/>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="M16:N16"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="R11:S11"/>
@@ -2953,45 +2987,6 @@
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="C9:C16"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3009,26 +3004,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9791b281-ea2f-45ba-8c5e-7839b339335b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9aaca491-005b-46c9-aeee-4e6e1e4149cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010005E940D0A56804438BF0A7FB107EA8B1" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="933c5851410c7788b65dd6f1912aa965">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9791b281-ea2f-45ba-8c5e-7839b339335b" xmlns:ns3="9aaca491-005b-46c9-aeee-4e6e1e4149cc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3bbfbb8a65e43978db897d6a7d1cf9da" ns2:_="" ns3:_="">
     <xsd:import namespace="9791b281-ea2f-45ba-8c5e-7839b339335b"/>
@@ -3239,7 +3214,54 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9791b281-ea2f-45ba-8c5e-7839b339335b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9aaca491-005b-46c9-aeee-4e6e1e4149cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7AD74A6-B13D-4DC5-80D4-FE4C648A3D27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9791b281-ea2f-45ba-8c5e-7839b339335b"/>
+    <ds:schemaRef ds:uri="9aaca491-005b-46c9-aeee-4e6e1e4149cc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA9BC66A-C2DB-4D13-83D3-A9D6FE547EA2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{891E5F7B-C838-4741-AB52-88EF31B765A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3257,31 +3279,4 @@
     <ds:schemaRef ds:uri="9aaca491-005b-46c9-aeee-4e6e1e4149cc"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA9BC66A-C2DB-4D13-83D3-A9D6FE547EA2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7AD74A6-B13D-4DC5-80D4-FE4C648A3D27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9791b281-ea2f-45ba-8c5e-7839b339335b"/>
-    <ds:schemaRef ds:uri="9aaca491-005b-46c9-aeee-4e6e1e4149cc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>